--- a/biology/Médecine/Infection_sous_couronne_dentaire/Infection_sous_couronne_dentaire.xlsx
+++ b/biology/Médecine/Infection_sous_couronne_dentaire/Infection_sous_couronne_dentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une infection sous couronne dentaire est une infection qui survient après la pose d'une couronne dentaire sur une dent encore vivante ou dévitalisée.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Infection sous couronne dentaire d'une dent dévitalisée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'infection apparaît à la racine d'une dent dévitalisée. Cette infection peut se déclarer soit peu après le traitement, soit quelques années plus tard.
 Lors de la pose de la couronne, si l'intégralité des canaux n'est pas complètement obturée, dans les endroits restés vides il y a encore des bactéries.
